--- a/OctoberBook.xlsx
+++ b/OctoberBook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="255" windowWidth="20115" windowHeight="7110"/>
+    <workbookView xWindow="240" yWindow="255" windowWidth="20115" windowHeight="7110" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
   <si>
     <t xml:space="preserve">Entity </t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>WM+WF+DM</t>
+  </si>
+  <si>
+    <t>Hello World</t>
   </si>
 </sst>
 </file>
@@ -969,7 +972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -1689,10 +1692,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="L11"/>
+  <dimension ref="E4:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:R21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1700,7 +1703,12 @@
     <col min="12" max="12" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
       <c r="L11" s="55"/>
     </row>
   </sheetData>
